--- a/team_specific_matrix/Oklahoma St._A.xlsx
+++ b/team_specific_matrix/Oklahoma St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.246031746031746</v>
+        <v>0.2517241379310345</v>
       </c>
       <c r="C2">
-        <v>0.4603174603174603</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02777777777777778</v>
+        <v>0.03103448275862069</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003968253968253968</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="P2">
-        <v>0.1626984126984127</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0992063492063492</v>
+        <v>0.09310344827586207</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02521008403361345</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C3">
-        <v>0.02521008403361345</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05042016806722689</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7899159663865546</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1092436974789916</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8064516129032258</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1612903225806452</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05625</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00625</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09375</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2625</v>
+        <v>0.2460732984293194</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.025</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="R6">
-        <v>0.11875</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="S6">
-        <v>0.3375</v>
+        <v>0.3403141361256545</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08661417322834646</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02362204724409449</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
-        <v>0.007874015748031496</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F7">
-        <v>0.07874015748031496</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1023622047244094</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03149606299212598</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1259842519685039</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="R7">
-        <v>0.08661417322834646</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4566929133858268</v>
+        <v>0.4466666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09923664122137404</v>
+        <v>0.09130434782608696</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01272264631043257</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="F8">
-        <v>0.05852417302798982</v>
+        <v>0.05869565217391304</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1068702290076336</v>
+        <v>0.1108695652173913</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02544529262086514</v>
+        <v>0.02391304347826087</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1272264631043257</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R8">
-        <v>0.1119592875318066</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="S8">
-        <v>0.4580152671755725</v>
+        <v>0.4565217391304348</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1735537190082645</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01652892561983471</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05785123966942149</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0743801652892562</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008264462809917356</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1322314049586777</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="R9">
-        <v>0.09917355371900827</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="S9">
-        <v>0.4380165289256198</v>
+        <v>0.4421768707482993</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1120976692563818</v>
+        <v>0.1094619666048238</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02330743618201998</v>
+        <v>0.02504638218923933</v>
       </c>
       <c r="E10">
-        <v>0.001109877913429523</v>
+        <v>0.0009276437847866419</v>
       </c>
       <c r="F10">
-        <v>0.05549389567147614</v>
+        <v>0.0575139146567718</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09988901220865705</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01553829078801332</v>
+        <v>0.01576994434137291</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2108768035516093</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="R10">
-        <v>0.1021087680355161</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="S10">
-        <v>0.3795782463928968</v>
+        <v>0.3794063079777366</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1396648044692737</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0893854748603352</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K11">
-        <v>0.1731843575418995</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="L11">
-        <v>0.5642458100558659</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0335195530726257</v>
+        <v>0.03240740740740741</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7358490566037735</v>
+        <v>0.7578125</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1981132075471698</v>
+        <v>0.1796875</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04716981132075472</v>
+        <v>0.046875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01886792452830189</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6842105263157895</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1052631578947368</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01851851851851852</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1604938271604938</v>
+        <v>0.1391752577319588</v>
       </c>
       <c r="I15">
-        <v>0.04938271604938271</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="J15">
-        <v>0.3148148148148148</v>
+        <v>0.3402061855670103</v>
       </c>
       <c r="K15">
-        <v>0.06790123456790123</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01851851851851852</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="N15">
-        <v>0.006172839506172839</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O15">
-        <v>0.06172839506172839</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3024691358024691</v>
+        <v>0.3041237113402062</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02547770700636943</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.267515923566879</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="I16">
-        <v>0.07006369426751592</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="J16">
-        <v>0.286624203821656</v>
+        <v>0.2905027932960894</v>
       </c>
       <c r="K16">
-        <v>0.07643312101910828</v>
+        <v>0.09497206703910614</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01910828025477707</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="N16">
-        <v>0.006369426751592357</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="O16">
-        <v>0.07643312101910828</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1719745222929936</v>
+        <v>0.1675977653631285</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02372881355932203</v>
+        <v>0.02240896358543417</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2101694915254237</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="I17">
-        <v>0.05423728813559322</v>
+        <v>0.06162464985994398</v>
       </c>
       <c r="J17">
-        <v>0.4305084745762712</v>
+        <v>0.42296918767507</v>
       </c>
       <c r="K17">
-        <v>0.08135593220338982</v>
+        <v>0.08683473389355742</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02033898305084746</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N17">
-        <v>0.003389830508474576</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="O17">
-        <v>0.08813559322033898</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08813559322033898</v>
+        <v>0.0896358543417367</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0111731843575419</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2458100558659218</v>
+        <v>0.2383177570093458</v>
       </c>
       <c r="I18">
-        <v>0.106145251396648</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="J18">
-        <v>0.4022346368715084</v>
+        <v>0.4065420560747663</v>
       </c>
       <c r="K18">
-        <v>0.06145251396648044</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0223463687150838</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06145251396648044</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0893854748603352</v>
+        <v>0.102803738317757</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01968911917098446</v>
+        <v>0.01916376306620209</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2290155440414508</v>
+        <v>0.2290940766550523</v>
       </c>
       <c r="I19">
-        <v>0.06943005181347151</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J19">
-        <v>0.3772020725388601</v>
+        <v>0.3771777003484321</v>
       </c>
       <c r="K19">
-        <v>0.08911917098445596</v>
+        <v>0.08710801393728224</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0227979274611399</v>
+        <v>0.02264808362369338</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05595854922279793</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1367875647668394</v>
+        <v>0.132404181184669</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oklahoma St._A.xlsx
+++ b/team_specific_matrix/Oklahoma St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2517241379310345</v>
+        <v>0.2476489028213166</v>
       </c>
       <c r="C2">
-        <v>0.4482758620689655</v>
+        <v>0.4576802507836991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03103448275862069</v>
+        <v>0.02821316614420063</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003448275862068965</v>
+        <v>0.003134796238244514</v>
       </c>
       <c r="P2">
-        <v>0.1724137931034483</v>
+        <v>0.1755485893416928</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09310344827586207</v>
+        <v>0.0877742946708464</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02941176470588235</v>
+        <v>0.02580645161290323</v>
       </c>
       <c r="C3">
-        <v>0.03676470588235294</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04411764705882353</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7647058823529411</v>
+        <v>0.7612903225806451</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.125</v>
+        <v>0.1354838709677419</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631578947368421</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7368421052631579</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2368421052631579</v>
+        <v>0.1956521739130435</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06282722513089005</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005235602094240838</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08900523560209424</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2460732984293194</v>
+        <v>0.2443438914027149</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02617801047120419</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1204188481675393</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R6">
-        <v>0.1099476439790576</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="S6">
-        <v>0.3403141361256545</v>
+        <v>0.3438914027149321</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07333333333333333</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="E7">
-        <v>0.006666666666666667</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1066666666666667</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02666666666666667</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1533333333333333</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="R7">
-        <v>0.08666666666666667</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="S7">
-        <v>0.4466666666666667</v>
+        <v>0.4502923976608187</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09130434782608696</v>
+        <v>0.09266409266409266</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01304347826086956</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="E8">
-        <v>0.002173913043478261</v>
+        <v>0.001930501930501931</v>
       </c>
       <c r="F8">
-        <v>0.05869565217391304</v>
+        <v>0.05598455598455598</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1108695652173913</v>
+        <v>0.1042471042471042</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02391304347826087</v>
+        <v>0.02316602316602316</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R8">
-        <v>0.1130434782608696</v>
+        <v>0.1138996138996139</v>
       </c>
       <c r="S8">
-        <v>0.4565217391304348</v>
+        <v>0.4498069498069498</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1564625850340136</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01360544217687075</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05442176870748299</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07482993197278912</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006802721088435374</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1360544217687075</v>
+        <v>0.1377245508982036</v>
       </c>
       <c r="R9">
-        <v>0.1156462585034014</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="S9">
-        <v>0.4421768707482993</v>
+        <v>0.4251497005988024</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1094619666048238</v>
+        <v>0.109715242881072</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02504638218923933</v>
+        <v>0.02596314907872697</v>
       </c>
       <c r="E10">
-        <v>0.0009276437847866419</v>
+        <v>0.001675041876046901</v>
       </c>
       <c r="F10">
-        <v>0.0575139146567718</v>
+        <v>0.05946398659966499</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1020408163265306</v>
+        <v>0.1080402010050251</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01576994434137291</v>
+        <v>0.01675041876046901</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2077922077922078</v>
+        <v>0.2093802345058627</v>
       </c>
       <c r="R10">
-        <v>0.1020408163265306</v>
+        <v>0.09631490787269682</v>
       </c>
       <c r="S10">
-        <v>0.3794063079777366</v>
+        <v>0.3726968174204355</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1296296296296296</v>
+        <v>0.1346938775510204</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09259259259259259</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="K11">
-        <v>0.1759259259259259</v>
+        <v>0.1795918367346939</v>
       </c>
       <c r="L11">
-        <v>0.5694444444444444</v>
+        <v>0.5673469387755102</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03240740740740741</v>
+        <v>0.0326530612244898</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7578125</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1796875</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.046875</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.015625</v>
+        <v>0.02054794520547945</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2093023255813954</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1162790697674419</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02577319587628866</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1391752577319588</v>
+        <v>0.1377777777777778</v>
       </c>
       <c r="I15">
-        <v>0.04123711340206185</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="J15">
-        <v>0.3402061855670103</v>
+        <v>0.3422222222222222</v>
       </c>
       <c r="K15">
-        <v>0.06701030927835051</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0154639175257732</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
-        <v>0.005154639175257732</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="O15">
-        <v>0.06185567010309279</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3041237113402062</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0223463687150838</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2569832402234637</v>
+        <v>0.25</v>
       </c>
       <c r="I16">
-        <v>0.07262569832402235</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="J16">
-        <v>0.2905027932960894</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="K16">
-        <v>0.09497206703910614</v>
+        <v>0.09134615384615384</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01675977653631285</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N16">
-        <v>0.00558659217877095</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="O16">
-        <v>0.07262569832402235</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1675977653631285</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02240896358543417</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2100840336134454</v>
+        <v>0.2097560975609756</v>
       </c>
       <c r="I17">
-        <v>0.06162464985994398</v>
+        <v>0.06585365853658537</v>
       </c>
       <c r="J17">
-        <v>0.42296918767507</v>
+        <v>0.4121951219512195</v>
       </c>
       <c r="K17">
-        <v>0.08683473389355742</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N17">
-        <v>0.002801120448179272</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="O17">
-        <v>0.08403361344537816</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0896358543417367</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009345794392523364</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2383177570093458</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="I18">
-        <v>0.102803738317757</v>
+        <v>0.09649122807017543</v>
       </c>
       <c r="J18">
-        <v>0.4065420560747663</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="K18">
-        <v>0.06542056074766354</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01869158878504673</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05607476635514019</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.102803738317757</v>
+        <v>0.1184210526315789</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01916376306620209</v>
+        <v>0.021671826625387</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2290940766550523</v>
+        <v>0.2306501547987616</v>
       </c>
       <c r="I19">
-        <v>0.07142857142857142</v>
+        <v>0.07043343653250773</v>
       </c>
       <c r="J19">
-        <v>0.3771777003484321</v>
+        <v>0.3653250773993808</v>
       </c>
       <c r="K19">
-        <v>0.08710801393728224</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02264808362369338</v>
+        <v>0.02321981424148607</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06097560975609756</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.132404181184669</v>
+        <v>0.1346749226006192</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Oklahoma St._A.xlsx
+++ b/team_specific_matrix/Oklahoma St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2476489028213166</v>
+        <v>0.2462006079027356</v>
       </c>
       <c r="C2">
-        <v>0.4576802507836991</v>
+        <v>0.4589665653495441</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02821316614420063</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003134796238244514</v>
+        <v>0.00303951367781155</v>
       </c>
       <c r="P2">
-        <v>0.1755485893416928</v>
+        <v>0.1793313069908815</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0877742946708464</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02580645161290323</v>
+        <v>0.03125</v>
       </c>
       <c r="C3">
-        <v>0.03870967741935484</v>
+        <v>0.0375</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03870967741935484</v>
+        <v>0.0375</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7612903225806451</v>
+        <v>0.75625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1354838709677419</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7826086956521739</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1956521739130435</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009049773755656109</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08597285067873303</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2443438914027149</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04072398190045249</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1176470588235294</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="R6">
-        <v>0.09954751131221719</v>
+        <v>0.09606986899563319</v>
       </c>
       <c r="S6">
-        <v>0.3438914027149321</v>
+        <v>0.3537117903930131</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07017543859649122</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02339181286549707</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="E7">
-        <v>0.005847953216374269</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="F7">
-        <v>0.07017543859649122</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09941520467836257</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02339181286549707</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1754385964912281</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="R7">
-        <v>0.08187134502923976</v>
+        <v>0.07909604519774012</v>
       </c>
       <c r="S7">
-        <v>0.4502923976608187</v>
+        <v>0.4519774011299435</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09266409266409266</v>
+        <v>0.09310986964618249</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01544401544401544</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="E8">
-        <v>0.001930501930501931</v>
+        <v>0.00186219739292365</v>
       </c>
       <c r="F8">
-        <v>0.05598455598455598</v>
+        <v>0.05772811918063315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1042471042471042</v>
+        <v>0.1024208566108007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02316602316602316</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.143389199255121</v>
       </c>
       <c r="R8">
-        <v>0.1138996138996139</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="S8">
-        <v>0.4498069498069498</v>
+        <v>0.4506517690875233</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.155688622754491</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01796407185628742</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="F9">
-        <v>0.08383233532934131</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0718562874251497</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005988023952095809</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1377245508982036</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="R9">
-        <v>0.1017964071856287</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S9">
-        <v>0.4251497005988024</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.109715242881072</v>
+        <v>0.1091350040420372</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02596314907872697</v>
+        <v>0.02506063055780113</v>
       </c>
       <c r="E10">
-        <v>0.001675041876046901</v>
+        <v>0.001616814874696847</v>
       </c>
       <c r="F10">
-        <v>0.05946398659966499</v>
+        <v>0.06063055780113177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1080402010050251</v>
+        <v>0.110751818916734</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01675041876046901</v>
+        <v>0.01616814874696847</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2093802345058627</v>
+        <v>0.2077607113985449</v>
       </c>
       <c r="R10">
-        <v>0.09631490787269682</v>
+        <v>0.09539207760711399</v>
       </c>
       <c r="S10">
-        <v>0.3726968174204355</v>
+        <v>0.3734842360549717</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1346938775510204</v>
+        <v>0.1354581673306773</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08571428571428572</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="K11">
-        <v>0.1795918367346939</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="L11">
-        <v>0.5673469387755102</v>
+        <v>0.5737051792828686</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0326530612244898</v>
+        <v>0.03187250996015936</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7534246575342466</v>
+        <v>0.756578947368421</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1780821917808219</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04794520547945205</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02054794520547945</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2156862745098039</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02666666666666667</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1377777777777778</v>
+        <v>0.1341991341991342</v>
       </c>
       <c r="I15">
-        <v>0.04444444444444445</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J15">
-        <v>0.3422222222222222</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="K15">
-        <v>0.06222222222222222</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N15">
-        <v>0.004444444444444444</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="O15">
-        <v>0.05777777777777778</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3111111111111111</v>
+        <v>0.3073593073593073</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02403846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.2465116279069768</v>
       </c>
       <c r="I16">
-        <v>0.08173076923076923</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="J16">
-        <v>0.2884615384615384</v>
+        <v>0.2883720930232558</v>
       </c>
       <c r="K16">
-        <v>0.09134615384615384</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01923076923076923</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="N16">
-        <v>0.004807692307692308</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="O16">
-        <v>0.0673076923076923</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1730769230769231</v>
+        <v>0.1813953488372093</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01951219512195122</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2097560975609756</v>
+        <v>0.2132701421800948</v>
       </c>
       <c r="I17">
-        <v>0.06585365853658537</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="J17">
-        <v>0.4121951219512195</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="K17">
-        <v>0.08536585365853659</v>
+        <v>0.08767772511848342</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02439024390243903</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N17">
-        <v>0.004878048780487805</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="O17">
-        <v>0.08048780487804878</v>
+        <v>0.07819905213270142</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0975609756097561</v>
+        <v>0.0995260663507109</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.008771929824561403</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2368421052631579</v>
+        <v>0.2489270386266094</v>
       </c>
       <c r="I18">
-        <v>0.09649122807017543</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="J18">
-        <v>0.4078947368421053</v>
+        <v>0.4034334763948498</v>
       </c>
       <c r="K18">
-        <v>0.06140350877192982</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05263157894736842</v>
+        <v>0.05150214592274678</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1184210526315789</v>
+        <v>0.1158798283261803</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.021671826625387</v>
+        <v>0.02086438152011923</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2306501547987616</v>
+        <v>0.2302533532041729</v>
       </c>
       <c r="I19">
-        <v>0.07043343653250773</v>
+        <v>0.07078986587183309</v>
       </c>
       <c r="J19">
-        <v>0.3653250773993808</v>
+        <v>0.3673621460506706</v>
       </c>
       <c r="K19">
-        <v>0.08823529411764706</v>
+        <v>0.08718330849478391</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02321981424148607</v>
+        <v>0.02309985096870343</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06578947368421052</v>
+        <v>0.06706408345752608</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1346749226006192</v>
+        <v>0.1333830104321908</v>
       </c>
     </row>
   </sheetData>
